--- a/tl-excel/src/test/resources/resolve.xlsx
+++ b/tl-excel/src/test/resources/resolve.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E09B856-40A9-44BD-B03E-BA6324D57D54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D75EE5-E17F-44B6-AEB1-0B1AD2EF435B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,8 +109,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,8 +118,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,8 +454,8 @@
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -474,15 +474,15 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -496,7 +496,6 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C{{#123()}}</oddHeader>
-    <oddFooter>&amp;L@[image_页脚图片(KG_50_50)]&amp;C@(image_页脚签名[KG_50_50])&amp;R@[lob.image_页脚右边图片(KG_50_50)]</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/tl-excel/src/test/resources/resolve.xlsx
+++ b/tl-excel/src/test/resources/resolve.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D75EE5-E17F-44B6-AEB1-0B1AD2EF435B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D3410-E04A-4A84-85B1-7B5F872A96FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前缀 {{字符串3(p1)(p2)}} 后缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{字符串}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,6 +43,10 @@
   </si>
   <si>
     <t>{{#图片(full)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀 {{字符串3(p1)(p2)}} 后缀 {{数字3}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -431,13 +431,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -464,7 +464,7 @@
     <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -475,7 +475,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7"/>
     </row>
@@ -495,7 +495,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C{{#123()}}</oddHeader>
+    <oddHeader xml:space="preserve">&amp;C{{字符串}}&amp;R{{#图片2(full)}}
+时间：{{日期}} </oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/tl-excel/src/test/resources/resolve.xlsx
+++ b/tl-excel/src/test/resources/resolve.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D3410-E04A-4A84-85B1-7B5F872A96FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2B52B9-3A9E-4A24-87CF-46B97B8ACE17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="TL_list_group1">Sheet1!$A$10:$D$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>单值填充</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +50,34 @@
   </si>
   <si>
     <t>前缀 {{字符串3(p1)(p2)}} 后缀 {{数字3}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>一维码</t>
+  </si>
+  <si>
+    <t>{{序号}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{数字}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{字符串}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{#图片}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,12 +123,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -110,17 +156,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -416,12 +460,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -452,44 +496,68 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tl-excel/src/test/resources/resolve.xlsx
+++ b/tl-excel/src/test/resources/resolve.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2B52B9-3A9E-4A24-87CF-46B97B8ACE17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C7BF6A-4C01-437A-B521-CD777095C473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>单值填充</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,9 +56,6 @@
     <t>序号</t>
   </si>
   <si>
-    <t>数字</t>
-  </si>
-  <si>
     <t>字符串</t>
   </si>
   <si>
@@ -69,16 +66,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{数字}}</t>
+    <t>{{#图片}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{{字符串}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{#图片}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -123,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -146,25 +138,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -447,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,12 +516,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -498,66 +554,65 @@
     </row>
     <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tl-excel/src/test/resources/resolve.xlsx
+++ b/tl-excel/src/test/resources/resolve.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C7BF6A-4C01-437A-B521-CD777095C473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66460A7D-D867-43B3-B883-CCC4D6B0623C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>单值填充</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,32 +45,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>前缀 {{字符串3(p1)(p2)}} 后缀 {{数字3}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>一维码</t>
+  </si>
+  <si>
+    <t>{{序号}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{#图片}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{字符串}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{{#图片(full)}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀 {{字符串3(p1)(p2)}} 后缀 {{数字3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>字符串</t>
-  </si>
-  <si>
-    <t>一维码</t>
-  </si>
-  <si>
-    <t>{{序号}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{#图片}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{字符串}}</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,58 +130,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -202,23 +153,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,12 +465,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -554,65 +503,73 @@
     </row>
     <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
